--- a/L.xlsx
+++ b/L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453404B-ECA4-4C15-B51F-CB28FC217F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF550E7A-1D68-4EC8-9F68-D7540C4E69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,9 +610,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4">
+        <v>44961</v>
+      </c>
+      <c r="B18" s="2">
+        <v>680</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17065</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>

--- a/L.xlsx
+++ b/L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF550E7A-1D68-4EC8-9F68-D7540C4E69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2497A2B3-3750-4388-AA02-4183E4F5473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,6 +36,10 @@
   </si>
   <si>
     <t>Rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/2/29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -413,16 +417,16 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -433,7 +437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45238</v>
       </c>
@@ -444,7 +448,7 @@
         <v>61431</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45239</v>
       </c>
@@ -455,7 +459,7 @@
         <v>60136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45240</v>
       </c>
@@ -466,7 +470,7 @@
         <v>58309</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45241</v>
       </c>
@@ -477,7 +481,7 @@
         <v>57379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45243</v>
       </c>
@@ -488,7 +492,7 @@
         <v>53901</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45244</v>
       </c>
@@ -499,7 +503,7 @@
         <v>53223</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45249</v>
       </c>
@@ -510,7 +514,7 @@
         <v>49221</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45251</v>
       </c>
@@ -521,7 +525,7 @@
         <v>48001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45252</v>
       </c>
@@ -532,7 +536,7 @@
         <v>47073</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45253</v>
       </c>
@@ -543,7 +547,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45254</v>
       </c>
@@ -554,7 +558,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45259</v>
       </c>
@@ -565,7 +569,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45260</v>
       </c>
@@ -576,7 +580,7 @@
         <v>39904</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45261</v>
       </c>
@@ -587,7 +591,7 @@
         <v>39229</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45265</v>
       </c>
@@ -598,7 +602,7 @@
         <v>36914</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45267</v>
       </c>
@@ -609,7 +613,7 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>44961</v>
       </c>
@@ -620,253 +624,265 @@
         <v>17065</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>44976</v>
+      </c>
+      <c r="B19" s="2">
+        <v>739</v>
+      </c>
+      <c r="C19" s="2">
+        <v>13781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>780</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>

--- a/L.xlsx
+++ b/L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2497A2B3-3750-4388-AA02-4183E4F5473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E36C8-BA67-4640-A6F0-9FA695AB34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>Rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/2/29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -102,6 +98,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,16 +416,16 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45238</v>
       </c>
@@ -448,7 +447,7 @@
         <v>61431</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45239</v>
       </c>
@@ -459,7 +458,7 @@
         <v>60136</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45240</v>
       </c>
@@ -470,7 +469,7 @@
         <v>58309</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45241</v>
       </c>
@@ -481,7 +480,7 @@
         <v>57379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45243</v>
       </c>
@@ -492,7 +491,7 @@
         <v>53901</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45244</v>
       </c>
@@ -503,7 +502,7 @@
         <v>53223</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45249</v>
       </c>
@@ -514,7 +513,7 @@
         <v>49221</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45251</v>
       </c>
@@ -525,7 +524,7 @@
         <v>48001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45252</v>
       </c>
@@ -536,7 +535,7 @@
         <v>47073</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45253</v>
       </c>
@@ -547,7 +546,7 @@
         <v>43377</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45254</v>
       </c>
@@ -558,7 +557,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45259</v>
       </c>
@@ -569,7 +568,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45260</v>
       </c>
@@ -580,7 +579,7 @@
         <v>39904</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45261</v>
       </c>
@@ -591,7 +590,7 @@
         <v>39229</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45265</v>
       </c>
@@ -602,7 +601,7 @@
         <v>36914</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45267</v>
       </c>
@@ -613,9 +612,9 @@
         <v>36290</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44961</v>
+        <v>45326</v>
       </c>
       <c r="B18" s="2">
         <v>680</v>
@@ -624,9 +623,9 @@
         <v>17065</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>44976</v>
+        <v>45341</v>
       </c>
       <c r="B19" s="2">
         <v>739</v>
@@ -635,9 +634,9 @@
         <v>13781</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45351</v>
       </c>
       <c r="B20" s="2">
         <v>780</v>
@@ -646,243 +645,250 @@
         <v>12036</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1339</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
